--- a/Tcc 1 2ª Tentativa/qualidadesgraficodiret.xlsx
+++ b/Tcc 1 2ª Tentativa/qualidadesgraficodiret.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
   <si>
     <t>COM040</t>
   </si>
@@ -80,6 +80,9 @@
   <si>
     <t>Disciplinas</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
@@ -116,10 +119,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -169,7 +172,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -185,9 +187,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Gráfico Comunicação'!$B$6:$O$6</c:f>
+              <c:f>'Gráfico Comunicação'!$B$6:$N$6</c:f>
               <c:strCache>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>COM003</c:v>
                 </c:pt>
@@ -204,30 +206,27 @@
                   <c:v>COM018</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>COM019</c:v>
+                  <c:v>COM020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>COM020</c:v>
+                  <c:v>COM027</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>COM027</c:v>
+                  <c:v>COM029</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>COM029</c:v>
+                  <c:v>COM030</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>COM030</c:v>
+                  <c:v>COM033</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>COM033</c:v>
+                  <c:v>COM034</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>COM034</c:v>
+                  <c:v>COM035</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>COM035</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>COM040</c:v>
                 </c:pt>
               </c:strCache>
@@ -235,10 +234,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gráfico Comunicação'!$B$7:$O$7</c:f>
+              <c:f>'Gráfico Comunicação'!$B$7:$N$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -255,10 +254,10 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>7</c:v>
@@ -267,7 +266,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>8</c:v>
@@ -276,9 +275,6 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -295,11 +291,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="168356864"/>
-        <c:axId val="163313856"/>
+        <c:axId val="136972288"/>
+        <c:axId val="169384704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="168356864"/>
+        <c:axId val="136972288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -325,13 +321,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="163313856"/>
+        <c:crossAx val="169384704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -339,7 +334,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="163313856"/>
+        <c:axId val="169384704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -376,7 +371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168356864"/>
+        <c:crossAx val="136972288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -423,9 +418,23 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Habilidade de Comunicação</a:t>
+              <a:rPr lang="pt-BR" sz="1500">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Habilidades</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1500" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> de Comunicação</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="1500">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -435,83 +444,97 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1200404636920385"/>
+                  <c:y val="0.14160943423738701"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>45,16%</a:t>
+                      <a:rPr lang="en-US" sz="900">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>7 disciplinas</a:t>
                     </a:r>
                   </a:p>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>(14 Disciplinas)</a:t>
+                      <a:rPr lang="en-US" sz="900">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>22,58%</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
+              <c:showVal val="0"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
+              <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.19295516185476816"/>
+                  <c:y val="-0.18876130067074948"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>54,83%</a:t>
+                      <a:rPr lang="en-US">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>24 disciplinas</a:t>
                     </a:r>
                   </a:p>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>17 Disciplinas</a:t>
+                      <a:rPr lang="en-US">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>77,41%</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
+              <c:showVal val="0"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
+              <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
             </c:dLbl>
-            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -534,63 +557,45 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.4516</c:v>
+                  <c:v>0.2258</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54830000000000001</c:v>
+                  <c:v>0.77410000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
-        <c:axId val="131874816"/>
-        <c:axId val="131940352"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="131874816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131940352"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="131940352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131874816"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -627,9 +632,23 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Habilidade de Trabalho em Equipe</a:t>
+              <a:rPr lang="pt-BR" sz="1500">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Habilidades</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1500" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> de Comunicação</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="1500">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -639,106 +658,101 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17300459317585301"/>
+                  <c:y val="-1.1356080489938842E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>38,70%</a:t>
+                      <a:rPr lang="en-US" sz="900">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>16 Disciplinas</a:t>
                     </a:r>
                   </a:p>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>(</a:t>
+                      <a:rPr lang="en-US" sz="900">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>51,61%</a:t>
                     </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="900"/>
-                      <a:t>12</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="900" baseline="0"/>
-                      <a:t> disciplinas</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>)</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
+              <c:showVal val="0"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
+              <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.17736023622047245"/>
+                  <c:y val="1.7388451443569555E-2"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>61,29%</a:t>
+                      <a:rPr lang="en-US" sz="900">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>15 Disciplinas</a:t>
                     </a:r>
                   </a:p>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>(</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="900"/>
-                      <a:t>19 disciplinas</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>)</a:t>
+                      <a:rPr lang="en-US" sz="900">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>48,38%</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
+              <c:showVal val="0"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
+              <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
             </c:dLbl>
-            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Gráfico Trabalho em Equipe'!$B$10:$C$10</c:f>
+              <c:f>'Gráfico Trabalho em Equipe'!$E$17:$F$17</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -752,67 +766,212 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gráfico Trabalho em Equipe'!$B$11:$C$11</c:f>
+              <c:f>'Gráfico Trabalho em Equipe'!$E$18:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0.38700000000000001</c:v>
+                  <c:v>0.5161</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6129</c:v>
+                  <c:v>0.48380000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gráfico Comunicação'!$B$11:$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Possuem</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Não Possuem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráfico Comunicação'!$B$12:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.2258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77410000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1200404636920385"/>
+                  <c:y val="0.14160943423738701"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="900">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>7 disciplinas</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="900">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>22,58%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.19295516185476816"/>
+                  <c:y val="-0.18876130067074948"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>24 disciplinas</a:t>
+                    </a:r>
+                  </a:p>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>77,41%</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Gráfico Comunicação'!$B$11:$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Possuem</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Não Possuem</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Gráfico Comunicação'!$B$12:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.2258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77410000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="168357376"/>
-        <c:axId val="39478400"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="168357376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39478400"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="39478400"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168357376"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -849,9 +1008,23 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Habilidade de Organização</a:t>
+              <a:rPr lang="pt-BR" sz="1500">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t>Habilidades</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="pt-BR" sz="1500" baseline="0">
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:rPr>
+              <a:t> de Organização</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-BR" sz="1500">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -861,105 +1034,101 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.1200404636920385"/>
+                  <c:y val="0.14160943423738701"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>22,58%</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t> </a:t>
+                      <a:rPr lang="en-US" sz="900">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>7 disciplinas</a:t>
                     </a:r>
                   </a:p>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>(</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="900" baseline="0"/>
-                      <a:t>7 Disciplinas</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0"/>
-                      <a:t>)</a:t>
+                      <a:rPr lang="en-US" sz="900">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>22,58%</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
+              <c:showVal val="0"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
+              <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.19295516185476816"/>
+                  <c:y val="-0.18876130067074948"/>
+                </c:manualLayout>
+              </c:layout>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>77,41%</a:t>
+                      <a:rPr lang="en-US">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>24 disciplinas</a:t>
                     </a:r>
                   </a:p>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>(</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="900"/>
-                      <a:t>24 Disciplinas</a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>)</a:t>
+                      <a:rPr lang="en-US">
+                        <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>77,41%</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
+              <c:showVal val="0"/>
               <c:showCatName val="0"/>
               <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
+              <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
             </c:dLbl>
-            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
+            <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
+            <c:showLeaderLines val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Gráfico Organização'!$B$11:$C$11</c:f>
+              <c:f>'Gráfico Comunicação'!$B$11:$C$11</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -973,7 +1142,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Gráfico Organização'!$B$12:$C$12</c:f>
+              <c:f>'Gráfico Comunicação'!$B$12:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
@@ -988,52 +1157,35 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
+          <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="39224832"/>
-        <c:axId val="39481280"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="39224832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39481280"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="39481280"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="39224832"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1080,20 +1232,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>538162</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1116,19 +1268,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>395287</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>90487</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1151,20 +1303,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1468,29 +1622,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1600,30 +1754,27 @@
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1647,10 +1798,10 @@
         <v>5</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I7">
         <v>7</v>
@@ -1659,7 +1810,7 @@
         <v>7</v>
       </c>
       <c r="K7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L7">
         <v>8</v>
@@ -1668,10 +1819,30 @@
         <v>8</v>
       </c>
       <c r="N7">
-        <v>8</v>
-      </c>
-      <c r="O7">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1683,11 +1854,16 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>0.4516</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.54830000000000001</v>
+      <c r="B12" s="1">
+        <v>0.2258</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.77410000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1701,10 +1877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1713,16 +1889,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1815,11 +1991,27 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0.6129</v>
+      <c r="B11" s="1">
+        <v>0.5161</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.48380000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
+        <v>0.5161</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.48380000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1836,7 +2028,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1846,16 +2038,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1918,10 +2110,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>0.2258</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>0.77410000000000001</v>
       </c>
     </row>
